--- a/表情.xlsx
+++ b/表情.xlsx
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Puz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Anx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,13 +431,16 @@
       <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN,L,Masamune:,Paley:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +473,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -500,11 +505,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,7 +820,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,46 +864,46 @@
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
@@ -903,7 +911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -913,23 +921,23 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
@@ -940,13 +948,13 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
         <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
@@ -960,10 +968,10 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
@@ -974,7 +982,7 @@
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
@@ -985,22 +993,22 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>50</v>
       </c>
-      <c r="N7" t="s">
-        <v>51</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
@@ -1011,10 +1019,10 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -1025,19 +1033,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -1048,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
@@ -1061,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
@@ -1069,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
@@ -1077,16 +1085,16 @@
         <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
@@ -1094,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
@@ -1102,13 +1110,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
@@ -1116,16 +1124,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
@@ -1133,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
@@ -1141,19 +1149,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
         <v>79</v>
       </c>
-      <c r="H20" t="s">
-        <v>80</v>
-      </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
@@ -1161,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
@@ -1169,12 +1177,12 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
